--- a/Usuarios_Cadastrados.xlsx
+++ b/Usuarios_Cadastrados.xlsx
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Senha</t>
         </is>
       </c>
@@ -466,11 +471,15 @@
           <t>dada</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>12345678901234</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12345678</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12.345.678/9012-34</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12345-678</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -479,66 +488,76 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sasa12@</t>
+          <t>(12) 3456-7890</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>haha12@</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gaga</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>32145687900987</t>
+          <t>09.876.543/2112-34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>321456782313</t>
+          <t>32145-678</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>gaga12@</t>
+          <t>sasa@.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gaga12@</t>
+          <t>(21) 3456-7890</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>sasa12@</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>asas</t>
+          <t>lala</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21.346.578/9098-76</t>
+          <t>32.145.678/9012-34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12345-678</t>
+          <t>12345-768</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>asas@.</t>
+          <t>lala@.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(12) 3456-7890</t>
+          <t>(12) 34567-8901</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>asas@12</t>
+          <t>lala12@</t>
         </is>
       </c>
     </row>

--- a/Usuarios_Cadastrados.xlsx
+++ b/Usuarios_Cadastrados.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>haha12@</t>
+          <t>vava12@</t>
         </is>
       </c>
     </row>

--- a/Usuarios_Cadastrados.xlsx
+++ b/Usuarios_Cadastrados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,38 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EmpresaTeste</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12.345.678/9123-45</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12345-678</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>eg@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(71) 99945-2004</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Eg2024!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Usuarios_Cadastrados.xlsx
+++ b/Usuarios_Cadastrados.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +47,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +72,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -468,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dada</t>
+          <t>fafa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,7 +493,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dada12@.</t>
+          <t>fafa@.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,103 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>vava12@</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sasa</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>09.876.543/2112-34</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>32145-678</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sasa@.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(21) 3456-7890</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>sasa12@</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lala</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>32.145.678/9012-34</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>12345-768</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>lala@.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(12) 34567-8901</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>lala12@</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EmpresaTeste</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>12.345.678/9123-45</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12345-678</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>eg@gmail.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>(71) 99945-2004</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Eg2024!</t>
+          <t>fafa12@</t>
         </is>
       </c>
     </row>
